--- a/medicine/Premiers secours et secourisme/Équipier_secouriste/Équipier_secouriste.xlsx
+++ b/medicine/Premiers secours et secourisme/Équipier_secouriste/Équipier_secouriste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quipier_secouriste</t>
+          <t>Équipier_secouriste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un équipier secouriste est, en France, une personne ayant suivi avec succès la formation Premiers Secours en équipe de niveau 2 (PSE2).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quipier_secouriste</t>
+          <t>Équipier_secouriste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Explication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le référentiel national de compétences de sécurité civile : « L'équipier secouriste est une personne formée, entraînée et expérimentée capable de prendre en charge une ou plusieurs victimes ». Au sein d'un dispositif prévisionnel de secours ou au sein d'une équipe de secours d'urgence, l'équipier secouriste, sous la responsabilité d'un chef d'équipe, est responsable de la prise en charge d'une victime.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quipier_secouriste</t>
+          <t>Équipier_secouriste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour obtenir le certificat de compétences d'équipier secouriste, il faut avoir 16 ans minimum (et une autorisation de l'autorité parentale pour les mineurs), être titulaire du certificat de compétences de secouriste - PSE1, avoir suivi l'ensemble de la formation PSE2 (dispensée par des formateurs titulaires de l'unité d'enseignement Pédagogie appliquée à l'emploi de formateur aux premiers secours (PAE PS)) et satisfaire les modalités de certification du référentiel interne de l’organisme formateur. Les équipiers secouristes, tout comme les secouristes, sont soumis à une obligation de formation continue d'au minimum 6h par an.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89quipier_secouriste</t>
+          <t>Équipier_secouriste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Compétences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les compétences acquises au cours de la formation PSE1, l'équipier secouriste est capable de :
 Prendre en charge une atteintes liée aux circonstances
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89quipier_secouriste</t>
+          <t>Équipier_secouriste</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,11 +639,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Décret n°91-834 du 30 août 1991 modifié relatif à la formation aux premiers secours[1].
-Arrêté du 19 janvier 2015 modifiant l'arrêté du 14 novembre 2007 fixant le référentiel national de compétences de sécurité civile. relatif à l'unité d'enseignement "premiers secours en équipe de niveau 2"[2].
-Référentiel national de compétences de sécurité civile[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Décret n°91-834 du 30 août 1991 modifié relatif à la formation aux premiers secours.
+Arrêté du 19 janvier 2015 modifiant l'arrêté du 14 novembre 2007 fixant le référentiel national de compétences de sécurité civile. relatif à l'unité d'enseignement "premiers secours en équipe de niveau 2".
+Référentiel national de compétences de sécurité civile.</t>
         </is>
       </c>
     </row>
